--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507343.1544251497</v>
+        <v>503205.6712902361</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33940801.53424101</v>
+        <v>33940801.534241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.46202157</v>
+        <v>6660456.462021572</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>23.32779925082544</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="E2" t="n">
-        <v>2.684048801068291</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="F2" t="n">
-        <v>23.32779925082544</v>
+        <v>6.8873112644117</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20.54712558012704</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.32779925082544</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="G3" t="n">
-        <v>23.32779925082544</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="H3" t="n">
-        <v>23.32779925082544</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>20.54712558012718</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.32779925082544</v>
+        <v>0.8458783860907028</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.32779925082544</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.70124719403647</v>
       </c>
       <c r="S4" t="n">
-        <v>20.54712558012704</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23.32779925082544</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770259</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.8422975499833</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C7" t="n">
         <v>41.31500304752735</v>
@@ -1062,10 +1062,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="F7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752733</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>17.84229754998328</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>199.1695493420036</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.6628308136124</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>51.77925078256411</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>281.7256967185057</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>406.5920929955355</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.21540129667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>153.3620349323709</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>124.9554984777213</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1852,16 +1852,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>106.613609008673</v>
       </c>
       <c r="X17" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>122.1224355153811</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>132.6978242957215</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>26.7011001816013</v>
+        <v>86.38976318987859</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>156.7012890994284</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>30.39223119676581</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>13.63374563335429</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>172.5998412330482</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>196.0791627727779</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>65.60425004390044</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>106.5451687179162</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>150.568915998048</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>168.4257624077804</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>17.7512391430302</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.0758425039136</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>202.9938507929464</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>51.52974647654149</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>120.7679082365841</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>87.56931538056884</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3268,10 +3268,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>132.3047197514014</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3325,13 +3325,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>197.757068121172</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>123.5435789264213</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>17.75123914303028</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>168.4257624077809</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>340.235230278746</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>104.852859635248</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>188.81503203837</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>344.7189380347882</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>338.6830497639208</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>31.4261087742431</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.2229309253779</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>338.6251682162969</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>224.2859784939135</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>13.69228974266224</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>73.46093032721041</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.70425151857025</v>
+        <v>55.94997117851342</v>
       </c>
       <c r="C2" t="n">
-        <v>28.14081793187788</v>
+        <v>55.94997117851342</v>
       </c>
       <c r="D2" t="n">
-        <v>28.14081793187788</v>
+        <v>32.3865375918209</v>
       </c>
       <c r="E2" t="n">
-        <v>25.4296575267584</v>
+        <v>8.823104005128371</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940066035</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940066035</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940066035</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394746176</v>
+        <v>4.300780394746208</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922426</v>
+        <v>10.55978981922434</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570158</v>
+        <v>19.94042246570173</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593651</v>
+        <v>31.57792675593673</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258584137</v>
+        <v>44.52689258584168</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622060107</v>
+        <v>57.68538622060147</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895503</v>
+        <v>70.11057862895552</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249903</v>
+        <v>80.71519288249959</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691362</v>
+        <v>88.67881654691425</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="W2" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="X2" t="n">
-        <v>78.20913762301649</v>
+        <v>78.20913762301714</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.96341796307397</v>
+        <v>78.20913762301714</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.31119700330174</v>
+        <v>48.9930911134511</v>
       </c>
       <c r="C3" t="n">
-        <v>93.31119700330174</v>
+        <v>48.9930911134511</v>
       </c>
       <c r="D3" t="n">
-        <v>93.31119700330174</v>
+        <v>48.9930911134511</v>
       </c>
       <c r="E3" t="n">
-        <v>72.55652470014311</v>
+        <v>48.9930911134511</v>
       </c>
       <c r="F3" t="n">
-        <v>48.99309111345076</v>
+        <v>25.42965752675858</v>
       </c>
       <c r="G3" t="n">
-        <v>25.4296575267584</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940066035</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="I3" t="n">
-        <v>14.41631532841152</v>
+        <v>24.96074519838339</v>
       </c>
       <c r="J3" t="n">
-        <v>18.14413846312351</v>
+        <v>33.70409941137681</v>
       </c>
       <c r="K3" t="n">
-        <v>24.51558195927928</v>
+        <v>40.07554290753262</v>
       </c>
       <c r="L3" t="n">
-        <v>33.08277402482486</v>
+        <v>48.64273497307826</v>
       </c>
       <c r="M3" t="n">
-        <v>43.08028307697248</v>
+        <v>58.64024402522594</v>
       </c>
       <c r="N3" t="n">
-        <v>53.3423964452138</v>
+        <v>68.90235739346734</v>
       </c>
       <c r="O3" t="n">
-        <v>62.73022531057388</v>
+        <v>78.29018625882748</v>
       </c>
       <c r="P3" t="n">
-        <v>85.82474656889106</v>
+        <v>85.82474656889164</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.86140060132492</v>
+        <v>90.86140060132554</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="S3" t="n">
-        <v>93.31119700330174</v>
+        <v>69.74776341660987</v>
       </c>
       <c r="T3" t="n">
-        <v>93.31119700330174</v>
+        <v>69.74776341660987</v>
       </c>
       <c r="U3" t="n">
-        <v>93.31119700330174</v>
+        <v>69.74776341660987</v>
       </c>
       <c r="V3" t="n">
-        <v>93.31119700330174</v>
+        <v>69.74776341660987</v>
       </c>
       <c r="W3" t="n">
-        <v>93.31119700330174</v>
+        <v>69.74776341660987</v>
       </c>
       <c r="X3" t="n">
-        <v>93.31119700330174</v>
+        <v>69.74776341660987</v>
       </c>
       <c r="Y3" t="n">
-        <v>93.31119700330174</v>
+        <v>48.9930911134511</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.99309111345076</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="C4" t="n">
-        <v>48.99309111345076</v>
+        <v>49.84751372566393</v>
       </c>
       <c r="D4" t="n">
-        <v>48.99309111345076</v>
+        <v>26.2840801389714</v>
       </c>
       <c r="E4" t="n">
-        <v>48.99309111345076</v>
+        <v>2.720646552278879</v>
       </c>
       <c r="F4" t="n">
-        <v>48.99309111345076</v>
+        <v>2.720646552278879</v>
       </c>
       <c r="G4" t="n">
-        <v>25.4296575267584</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="H4" t="n">
-        <v>25.4296575267584</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940066035</v>
+        <v>1.866223940066048</v>
       </c>
       <c r="J4" t="n">
-        <v>4.204940375576697</v>
+        <v>23.28029818730322</v>
       </c>
       <c r="K4" t="n">
-        <v>27.29946163389388</v>
+        <v>46.37481944562056</v>
       </c>
       <c r="L4" t="n">
-        <v>50.39398289221106</v>
+        <v>51.29283006492641</v>
       </c>
       <c r="M4" t="n">
-        <v>55.57933553429802</v>
+        <v>56.47818270701342</v>
       </c>
       <c r="N4" t="n">
-        <v>78.6738567926152</v>
+        <v>61.54023925310462</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700001995</v>
+        <v>66.21586779101385</v>
       </c>
       <c r="P4" t="n">
-        <v>90.54124495399113</v>
+        <v>70.21667574498505</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700330174</v>
+        <v>93.3111970033024</v>
       </c>
       <c r="R4" t="n">
-        <v>93.31119700330174</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="S4" t="n">
-        <v>72.55652470014311</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="T4" t="n">
-        <v>48.99309111345076</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="U4" t="n">
-        <v>48.99309111345076</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="V4" t="n">
-        <v>48.99309111345076</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="W4" t="n">
-        <v>48.99309111345076</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="X4" t="n">
-        <v>48.99309111345076</v>
+        <v>73.41094731235646</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.99309111345076</v>
+        <v>73.41094731235646</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4564,22 +4564,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952745</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030271</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176024</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654182</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682888</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
-        <v>102.286620264271</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
         <v>124.2498119529546</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C6" t="n">
-        <v>127.8182329816055</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D6" t="n">
-        <v>127.8182329816055</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E6" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F6" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5021791757032</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C7" t="n">
-        <v>86.76985286506957</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="D7" t="n">
-        <v>45.03752655443588</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="E7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
         <v>3.305200243802188</v>
@@ -4728,19 +4728,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>51.00047617709629</v>
+        <v>82.21448502239217</v>
       </c>
       <c r="L7" t="n">
-        <v>59.69371861623731</v>
+        <v>90.90772746153318</v>
       </c>
       <c r="M7" t="n">
-        <v>68.85952388578045</v>
+        <v>100.0735327310763</v>
       </c>
       <c r="N7" t="n">
-        <v>77.80738679259596</v>
+        <v>109.0213956378918</v>
       </c>
       <c r="O7" t="n">
-        <v>86.07218644061874</v>
+        <v>117.2861952859146</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4792,13 +4792,13 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
         <v>7.922179662952697</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4840,7 +4840,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802187</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C9" t="n">
-        <v>3.305200243802187</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
         <v>31.77020107089877</v>
@@ -4886,49 +4886,49 @@
         <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>71.15886372083324</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133805</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020717</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341946</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864402</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.9296689482059</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>86.76985286506954</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>45.03752655443586</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>3.305200243802187</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>3.305200243802187</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.305200243802187</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506954</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C10" t="n">
-        <v>45.03752655443586</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="D10" t="n">
-        <v>45.03752655443586</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443586</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443586</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443586</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443586</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>11.73102424840462</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>18.52444716464665</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>27.21768960378767</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>68.11954262083972</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>109.0213956378918</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
-        <v>117.2861952859146</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>146.5247019534641</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.5021791757032</v>
+        <v>104.7923756428305</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1110.030088953173</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C11" t="n">
-        <v>1110.030088953173</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D11" t="n">
-        <v>1110.030088953173</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E11" t="n">
-        <v>676.2553441114678</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F11" t="n">
-        <v>248.3879145206756</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.32965943808</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.32965943808</v>
+        <v>473.5061220338625</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,22 +5111,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
         <v>803.3877032987879</v>
@@ -5135,7 +5135,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.6552262893761</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C13" t="n">
-        <v>471.6552262893761</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D13" t="n">
-        <v>419.3529527716346</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E13" t="n">
-        <v>419.3529527716346</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>242.6458987333908</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092379</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M13" t="n">
         <v>1066.127311827553</v>
@@ -5217,7 +5217,7 @@
         <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083632</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1346.991198798029</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="C14" t="n">
-        <v>908.8487259814518</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D14" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
         <v>47.20655154895473</v>
@@ -5275,13 +5275,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
         <v>805.440802286702</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027047</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="Y14" t="n">
-        <v>1773.290769282936</v>
+        <v>882.6190276950331</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.14920158235849</v>
@@ -5354,19 +5354,19 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.1113136517137</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5496021349386</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895473</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>828.1746199579902</v>
       </c>
       <c r="M16" t="n">
-        <v>718.6204178572108</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1288.378132818745</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.109902217715</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U16" t="n">
-        <v>1955.723270266458</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V16" t="n">
-        <v>1668.767762136888</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.74135772318</v>
+        <v>1656.919126408693</v>
       </c>
       <c r="X16" t="n">
-        <v>1151.349603056593</v>
+        <v>1411.527371742105</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.9299323707007</v>
+        <v>1184.107701056214</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="X17" t="n">
-        <v>2209.200554108492</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.200554108492</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.2907825224202</v>
+        <v>843.5014354710333</v>
       </c>
       <c r="C19" t="n">
-        <v>724.2907825224202</v>
+        <v>670.9397239542583</v>
       </c>
       <c r="D19" t="n">
-        <v>558.4127897239429</v>
+        <v>505.061731155781</v>
       </c>
       <c r="E19" t="n">
-        <v>388.6547859746801</v>
+        <v>335.3037274065182</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9477319364363</v>
+        <v>335.3037274065182</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>170.5625470190367</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895473</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>901.6154856350192</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1485.796561053334</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>2016.697670932566</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2117.466727110249</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2226.289371088422</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1947.902739137165</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1660.947231007595</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1388.920826593887</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1143.529071927299</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.1094012414073</v>
+        <v>1035.320054190021</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
         <v>805.440802286702</v>
@@ -5831,10 +5831,10 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5889,46 +5889,46 @@
         <v>616.0817647851411</v>
       </c>
       <c r="C22" t="n">
-        <v>616.0817647851411</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D22" t="n">
-        <v>616.0817647851411</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E22" t="n">
-        <v>446.3237610358784</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F22" t="n">
-        <v>269.6167069976345</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>116.6355901513728</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898316</v>
+        <v>488.1941452900665</v>
       </c>
       <c r="L22" t="n">
-        <v>862.0820538119935</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M22" t="n">
-        <v>992.686446150523</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954412</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5989,7 +5989,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
         <v>512.3249274228015</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.185114027047</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y23" t="n">
-        <v>1941.185114027047</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6071,7 +6071,7 @@
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.5506608361497</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C25" t="n">
-        <v>754.9889493193747</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D25" t="n">
-        <v>589.1109565208974</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E25" t="n">
-        <v>419.3529527716346</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F25" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G25" t="n">
         <v>242.6458987333908</v>
@@ -6150,16 +6150,16 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L25" t="n">
-        <v>744.9929992049549</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.174074623269</v>
+        <v>1603.932529194405</v>
       </c>
       <c r="N25" t="n">
-        <v>1898.931789584803</v>
+        <v>2055.554276014867</v>
       </c>
       <c r="O25" t="n">
         <v>2173.320157362629</v>
@@ -6177,22 +6177,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2202.129578716259</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1923.742946765002</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1636.787438635433</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W25" t="n">
-        <v>1364.761034221724</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X25" t="n">
-        <v>1119.369279555137</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y25" t="n">
-        <v>1119.369279555137</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1782.900983623584</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E26" t="n">
         <v>475.073981139747</v>
@@ -6223,16 +6223,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2145.517933689757</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>1782.900983623584</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W26" t="n">
-        <v>1782.900983623584</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>1757.412362482226</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="27">
@@ -6308,7 +6308,7 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>753.852136908379</v>
+        <v>861.4735194517286</v>
       </c>
       <c r="C28" t="n">
-        <v>753.852136908379</v>
+        <v>688.9118079349536</v>
       </c>
       <c r="D28" t="n">
-        <v>753.852136908379</v>
+        <v>523.0338151364763</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>353.2758113872135</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>176.5687573489697</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H28" t="n">
         <v>110.3018381127067</v>
@@ -6387,22 +6387,22 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>430.2377900463791</v>
       </c>
       <c r="L28" t="n">
-        <v>326.7831174369939</v>
+        <v>554.108591664677</v>
       </c>
       <c r="M28" t="n">
-        <v>897.9345369632204</v>
+        <v>1138.289667082992</v>
       </c>
       <c r="N28" t="n">
-        <v>1467.692251924754</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O28" t="n">
-        <v>2005.127382498297</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6426,10 +6426,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1173.090426313258</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.6707556273661</v>
+        <v>1053.292138170716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1344.758510807007</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>1462.576271425268</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>1026.666486599712</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.05327704358</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228009</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2190.200544712604</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2190.200544712604</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>2190.200544712604</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>2190.200544712604</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X29" t="n">
-        <v>1771.058081291915</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y29" t="n">
-        <v>1771.058081291915</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>959.9477806029472</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C31" t="n">
-        <v>787.3860690861721</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D31" t="n">
-        <v>621.5080762876948</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E31" t="n">
-        <v>451.7500725384321</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F31" t="n">
-        <v>275.0430185001883</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="G31" t="n">
-        <v>110.3018381127067</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>320.0013704257346</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L31" t="n">
-        <v>862.0820538119935</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M31" t="n">
-        <v>992.686446150523</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N31" t="n">
-        <v>1120.185357954412</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O31" t="n">
         <v>1657.620488527956</v>
@@ -6645,28 +6645,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2233.988342595298</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>1991.741118498705</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1991.741118498705</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1704.785610369135</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.759205955427</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.367451288839</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y31" t="n">
-        <v>959.9477806029472</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.4307943255671</v>
+        <v>1582.440696732936</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F32" t="n">
         <v>716.4307943255671</v>
@@ -6697,7 +6697,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J32" t="n">
         <v>276.0532770435805</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>1903.045662401397</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V32" t="n">
-        <v>1540.428712335223</v>
+        <v>2008.740267217844</v>
       </c>
       <c r="W32" t="n">
-        <v>1135.573257746256</v>
+        <v>2008.740267217844</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>2008.740267217844</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.4307943255671</v>
+        <v>2008.740267217844</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>625.4485964662028</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C34" t="n">
-        <v>452.8868849494278</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="D34" t="n">
-        <v>287.0088921509505</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="E34" t="n">
-        <v>287.0088921509505</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F34" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G34" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
         <v>110.3018381127067</v>
@@ -6864,13 +6864,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>744.9929992049549</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M34" t="n">
-        <v>1329.174074623269</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
         <v>2173.320157362629</v>
@@ -6888,22 +6888,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2127.447185032204</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U34" t="n">
-        <v>1849.060553080947</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V34" t="n">
-        <v>1562.105044951378</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W34" t="n">
-        <v>1290.078640537669</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X34" t="n">
-        <v>1044.686885871082</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y34" t="n">
-        <v>817.26721518519</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.20655154895472</v>
+        <v>1054.899940253109</v>
       </c>
       <c r="C35" t="n">
-        <v>47.20655154895472</v>
+        <v>616.7574674365319</v>
       </c>
       <c r="D35" t="n">
-        <v>47.20655154895472</v>
+        <v>180.8476826109764</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895472</v>
+        <v>180.8476826109764</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895472</v>
+        <v>180.8476826109764</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.546859998019</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X35" t="n">
-        <v>881.7922457342091</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y35" t="n">
-        <v>473.5061220338625</v>
+        <v>1481.199510738016</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.1113136517137</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C37" t="n">
-        <v>559.5496021349386</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364612</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>544.1444466367066</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895472</v>
+        <v>367.4373925984628</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>358.0754347909393</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092371</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827552</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789086</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362629</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
         <v>2274.089213540313</v>
@@ -7119,28 +7119,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.723270266458</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V37" t="n">
-        <v>1668.767762136888</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W37" t="n">
-        <v>1396.74135772318</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X37" t="n">
-        <v>1151.349603056593</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.9299323707007</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>716.4307943255671</v>
+        <v>1514.88554354214</v>
       </c>
       <c r="C38" t="n">
-        <v>716.4307943255671</v>
+        <v>1514.88554354214</v>
       </c>
       <c r="D38" t="n">
-        <v>716.4307943255671</v>
+        <v>1078.975758716584</v>
       </c>
       <c r="E38" t="n">
-        <v>716.4307943255671</v>
+        <v>645.2010138748792</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>217.333584284087</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586986</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>1142.730364810475</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X38" t="n">
-        <v>1142.730364810475</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y38" t="n">
-        <v>1142.730364810475</v>
+        <v>1941.185114027047</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7256,22 +7256,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851411</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C40" t="n">
-        <v>616.0817647851411</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D40" t="n">
-        <v>450.2037719866638</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E40" t="n">
-        <v>344.2917925571204</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>488.1941452900665</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1030.274828676326</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M40" t="n">
-        <v>1160.879221014855</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N40" t="n">
-        <v>1288.378132818744</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O40" t="n">
         <v>1825.813263392288</v>
@@ -7356,28 +7356,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.32005419002</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041283</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1703.234501542679</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C41" t="n">
-        <v>1265.092028726102</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D41" t="n">
-        <v>829.1822439005466</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E41" t="n">
-        <v>395.4074990588418</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435805</v>
@@ -7423,7 +7423,7 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
         <v>1775.969506973259</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2108.089956131646</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1703.234501542679</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="X41" t="n">
-        <v>1703.234501542679</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y41" t="n">
-        <v>1703.234501542679</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043084</v>
@@ -7493,13 +7493,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.196554659879</v>
+        <v>959.2942050525569</v>
       </c>
       <c r="C43" t="n">
-        <v>856.6348431431041</v>
+        <v>786.7324935357818</v>
       </c>
       <c r="D43" t="n">
-        <v>690.7568503446269</v>
+        <v>620.8545007373045</v>
       </c>
       <c r="E43" t="n">
-        <v>520.9988465953642</v>
+        <v>451.0964969880418</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>274.389442949798</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,13 +7575,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7593,28 +7593,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2309.597344189779</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2067.350120093185</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U43" t="n">
-        <v>1788.963488141928</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V43" t="n">
-        <v>1502.007980012359</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W43" t="n">
-        <v>1502.007980012359</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X43" t="n">
-        <v>1256.616225345771</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.196554659879</v>
+        <v>1151.112823771544</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>658.9737274659502</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C44" t="n">
-        <v>658.9737274659502</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D44" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E44" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F44" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,10 +7672,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
         <v>2108.089956131646</v>
@@ -7687,13 +7687,13 @@
         <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>1486.402314586986</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>1067.259851166297</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y44" t="n">
-        <v>658.9737274659502</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
         <v>1676.651116233592</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>807.9003835041287</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>635.3386719873537</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>635.3386719873537</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>465.5806682380909</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>288.8736141998471</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>124.1324338123655</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>454.2867114360632</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>996.3673948223222</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1580.548470240637</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1708.047382044526</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2118.080353351143</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1831.124845221573</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.30463949596991</v>
+        <v>21.95557875856774</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.066193008365051</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.71713227096271</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>19.26803819366312</v>
       </c>
       <c r="K4" t="n">
-        <v>19.44574922168924</v>
+        <v>19.44574922168938</v>
       </c>
       <c r="L4" t="n">
-        <v>18.36011175657713</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21461082043031</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.223183504540962</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.52986788788554</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>37.13925100285415</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>31.52930186393523</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.52930186393523</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>36.36928463638102</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.7544002872377</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.335181293309057</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637265</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710762</v>
+        <v>1.530227110285693</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477706</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638103</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>105.0002374943217</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="M16" t="n">
-        <v>263.8716243249367</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>303.1049632594846</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>10.62967161639891</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>263.172203842287</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>327.3968030470432</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475394</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>229.6216911390738</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>444.99699715929</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>118.2717723303421</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10512,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>158.204531747539</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>69.27619576520544</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>200.7092366734148</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>141.4680432173438</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>253.9135309266336</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.43324883758548</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>8.222887726474305</v>
       </c>
       <c r="E2" t="n">
-        <v>26.75294859221946</v>
+        <v>6.109198142462155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2609560440588865</v>
+        <v>16.70144403047262</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23266,13 +23266,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>196.338115065314</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>7.540431649730692</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.4399620879284</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.360256329768163</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.358945790946905</v>
       </c>
       <c r="Y14" t="n">
-        <v>237.9878611666731</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.5383975994263</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>114.8692533779061</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>294.193291034404</v>
       </c>
       <c r="X17" t="n">
-        <v>265.3352856806301</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>8.89818449909616</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>107.1269275599059</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.3926684020055</v>
+        <v>76.70400539372817</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265.3352856806304</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>159.5082013350314</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1910062222731</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>83.88014333065303</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>218.8718760137045</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>97.48951853970632</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3926684020055</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>278.8680813952398</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>41.22777660779852</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>44.71309455508423</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>17.90643060689417</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>53.48613377075478</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>307.4610340889702</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>47.29251547518601</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>152.2554364750586</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,7 +25168,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>263.2029446559162</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>217.1939706653104</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>39.55018965718548</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8515264887142</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>227.0819019995367</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>60.57166976433098</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.20756407652215</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>80.49110833120139</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>78.86981726009617</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>62.12385027915622</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>131.6676598093637</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.75934218542992</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>92.92551876100305</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>190.6650602925689</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>117.328330271815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>195.845210042361</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352450.7999155251</v>
+        <v>352450.7999155252</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352450.7999155251</v>
+        <v>352450.7999155252</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>352450.7999155251</v>
+        <v>352450.7999155252</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352450.7999155251</v>
+        <v>352450.7999155252</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>358148.8322192703</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260259</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260259</v>
       </c>
       <c r="E2" t="n">
-        <v>212351.7212561033</v>
+        <v>212351.7212561035</v>
       </c>
       <c r="F2" t="n">
         <v>212351.7212561034</v>
@@ -26331,16 +26331,16 @@
         <v>212351.7212561034</v>
       </c>
       <c r="H2" t="n">
-        <v>212351.7212561034</v>
+        <v>212351.7212561033</v>
       </c>
       <c r="I2" t="n">
         <v>212351.7212561033</v>
       </c>
       <c r="J2" t="n">
+        <v>212351.7212561033</v>
+      </c>
+      <c r="K2" t="n">
         <v>212351.7212561034</v>
-      </c>
-      <c r="K2" t="n">
-        <v>212351.7212561033</v>
       </c>
       <c r="L2" t="n">
         <v>212351.7212561034</v>
@@ -26355,7 +26355,7 @@
         <v>212351.7212561034</v>
       </c>
       <c r="P2" t="n">
-        <v>212351.7212561035</v>
+        <v>212351.7212561034</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150169018</v>
+        <v>25672.80150169035</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.3182808868</v>
+        <v>18763.31828088663</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.57870718297</v>
+        <v>6103.578707183013</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749578</v>
+        <v>4629.330666749565</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>14728.79099426159</v>
       </c>
       <c r="M4" t="n">
-        <v>14728.79099426159</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="N4" t="n">
         <v>14728.7909942616</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413292</v>
+        <v>35449.86995413293</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26478,7 +26478,7 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909.1696738112005</v>
+        <v>895.2785304526648</v>
       </c>
       <c r="C6" t="n">
-        <v>12160.83860982398</v>
+        <v>12160.83860982433</v>
       </c>
       <c r="D6" t="n">
-        <v>30924.15689071072</v>
+        <v>30924.15689071095</v>
       </c>
       <c r="E6" t="n">
-        <v>-360913.6605037778</v>
+        <v>-361467.5409469996</v>
       </c>
       <c r="F6" t="n">
-        <v>151571.849052204</v>
+        <v>151017.9686089821</v>
       </c>
       <c r="G6" t="n">
-        <v>151571.849052204</v>
+        <v>151017.968608982</v>
       </c>
       <c r="H6" t="n">
-        <v>151571.849052204</v>
+        <v>151017.968608982</v>
       </c>
       <c r="I6" t="n">
-        <v>151571.8490522039</v>
+        <v>151017.968608982</v>
       </c>
       <c r="J6" t="n">
-        <v>145468.270345021</v>
+        <v>144914.389901799</v>
       </c>
       <c r="K6" t="n">
-        <v>146942.5183854543</v>
+        <v>146388.6379422325</v>
       </c>
       <c r="L6" t="n">
-        <v>151571.849052204</v>
+        <v>151017.968608982</v>
       </c>
       <c r="M6" t="n">
-        <v>14816.94466908852</v>
+        <v>14263.06422586662</v>
       </c>
       <c r="N6" t="n">
-        <v>151571.849052204</v>
+        <v>151017.968608982</v>
       </c>
       <c r="O6" t="n">
-        <v>151571.849052204</v>
+        <v>151017.968608982</v>
       </c>
       <c r="P6" t="n">
-        <v>151571.8490522041</v>
+        <v>151017.968608982</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443725</v>
+        <v>18.52934677443737</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26749,7 +26749,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082544</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619341</v>
@@ -26816,22 +26816,22 @@
         <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443725</v>
+        <v>18.52934677443737</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613435</v>
+        <v>14.22375528613422</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082544</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670191</v>
+        <v>17.98720379670175</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082544</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670191</v>
+        <v>17.98720379670186</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082544</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670191</v>
+        <v>17.98720379670175</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379035</v>
+        <v>81.11791793379034</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27466,16 +27466,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>72.63208494618877</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>59.22220074917456</v>
+        <v>59.2222007491744</v>
       </c>
       <c r="G3" t="n">
-        <v>61.16358400957165</v>
+        <v>61.16358400957149</v>
       </c>
       <c r="H3" t="n">
-        <v>17.60557545265901</v>
+        <v>40.93337470348445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.08058333091451</v>
+        <v>38.7527840800889</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>104.6737958484442</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>147.5082951507817</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>140.8914136196669</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>144.7326244609445</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>140.5741493974546</v>
+        <v>163.0560702621893</v>
       </c>
       <c r="H4" t="n">
         <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>63.44071311946174</v>
+        <v>86.76851237028717</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403648</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>136.5195219304858</v>
+        <v>157.0666475106129</v>
       </c>
       <c r="T4" t="n">
-        <v>219.9500856084057</v>
+        <v>243.2778848592312</v>
       </c>
       <c r="U4" t="n">
         <v>275.6468481807266</v>
@@ -27697,22 +27697,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G6" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>24.44494263490342</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T6" t="n">
         <v>128.5928940176698</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.0581349818139</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C7" t="n">
         <v>129.52109135408</v>
@@ -27782,10 +27782,10 @@
         <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>150.2181261617868</v>
       </c>
       <c r="F7" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.8762992535017</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>57.74913128065019</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27985,22 +27985,22 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>92.20263933340776</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2535436095709</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
@@ -28031,7 +28031,7 @@
         <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888226</v>
+        <v>68.15486756642629</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>225.0955395699384</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914466</v>
+        <v>0.07448983627914517</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937904</v>
+        <v>0.7628690357937956</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151727</v>
+        <v>2.871769413151747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.32223174189706</v>
+        <v>6.322231741897103</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593255</v>
+        <v>9.475386511593319</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862113</v>
+        <v>11.75505483862121</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455037</v>
+        <v>13.07976346455046</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187849</v>
+        <v>13.29140771187858</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237774</v>
+        <v>12.55069940237783</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923636</v>
+        <v>10.71173156923643</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489489</v>
+        <v>8.044064307489544</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169825</v>
+        <v>4.679172178169857</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144211011</v>
+        <v>1.697437144211022</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119559</v>
+        <v>0.3260792583119582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331571</v>
+        <v>0.005959186902331612</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086503</v>
+        <v>0.0398555760808653</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651965</v>
+        <v>0.3849209584651991</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257853</v>
+        <v>1.372220492257862</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850498</v>
+        <v>3.765477913850524</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268455</v>
+        <v>6.435801511268499</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136944</v>
+        <v>8.653729359137003</v>
       </c>
       <c r="M3" t="n">
-        <v>10.0984939920683</v>
+        <v>10.09849399206837</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903165</v>
+        <v>10.36577107903172</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555636</v>
+        <v>9.482655419555702</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862726</v>
+        <v>7.610666979862779</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690771</v>
+        <v>5.087529325690806</v>
       </c>
       <c r="R3" t="n">
-        <v>2.47454182017862</v>
+        <v>2.474541820178638</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862424</v>
+        <v>0.7402998451862475</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312059</v>
+        <v>0.160645940431207</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741121</v>
+        <v>0.002622077373741139</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062454</v>
+        <v>0.03341357615062477</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573712</v>
+        <v>0.2970770679573732</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784236</v>
+        <v>1.004837362784244</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849155</v>
+        <v>2.362339833849171</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136196</v>
+        <v>3.882050029136222</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248308</v>
+        <v>4.967687494248342</v>
       </c>
       <c r="M4" t="n">
-        <v>5.23772994150199</v>
+        <v>5.237729941502026</v>
       </c>
       <c r="N4" t="n">
-        <v>5.11318843039512</v>
+        <v>5.113188430395156</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999187</v>
+        <v>4.72285710899922</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526442</v>
+        <v>4.041220155526471</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362940024</v>
+        <v>2.797931362940044</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645354</v>
+        <v>1.502395887645364</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704293</v>
+        <v>0.5823075043704333</v>
       </c>
       <c r="T4" t="n">
-        <v>0.142767098098123</v>
+        <v>0.142767098098124</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124977</v>
+        <v>0.00182255869912499</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,34 +33496,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.116681354841</v>
@@ -33915,19 +33915,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34006,7 +34006,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116989</v>
@@ -34064,16 +34064,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
@@ -34152,19 +34152,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34243,7 +34243,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116989</v>
@@ -34301,16 +34301,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
@@ -34380,28 +34380,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020329</v>
+        <v>2.45914793402035</v>
       </c>
       <c r="J2" t="n">
-        <v>6.32223174189706</v>
+        <v>6.322231741897102</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593253</v>
+        <v>9.475386511593321</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862113</v>
+        <v>11.75505483862121</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455036</v>
+        <v>13.07976346455046</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187849</v>
+        <v>13.29140771187858</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237774</v>
+        <v>12.55069940237783</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923636</v>
+        <v>10.71173156923643</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489492</v>
+        <v>8.044064307489549</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169821</v>
+        <v>4.67917217816985</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12.67685998822776</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850498</v>
+        <v>8.831670922215576</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268455</v>
+        <v>6.435801511268501</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136946</v>
+        <v>8.653729359137003</v>
       </c>
       <c r="M3" t="n">
-        <v>10.0984939920683</v>
+        <v>10.09849399206837</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903165</v>
+        <v>10.36577107903172</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555634</v>
+        <v>9.482655419555698</v>
       </c>
       <c r="P3" t="n">
-        <v>23.32779925082544</v>
+        <v>7.610666979862785</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690767</v>
+        <v>5.087529325690809</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178615</v>
+        <v>2.474541820178644</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849155</v>
+        <v>21.6303780275123</v>
       </c>
       <c r="K4" t="n">
-        <v>23.32779925082544</v>
+        <v>23.3277992508256</v>
       </c>
       <c r="L4" t="n">
-        <v>23.32779925082544</v>
+        <v>4.967687494248338</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501989</v>
+        <v>5.237729941502025</v>
       </c>
       <c r="N4" t="n">
-        <v>23.32779925082543</v>
+        <v>5.113188430395155</v>
       </c>
       <c r="O4" t="n">
-        <v>7.946040613540148</v>
+        <v>4.722857108999222</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526446</v>
+        <v>4.041220155526474</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.79793136294002</v>
+        <v>23.32779925082559</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34950,7 +34950,7 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
         <v>18.93442017160913</v>
@@ -35096,7 +35096,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739423</v>
+        <v>38.39134521367465</v>
       </c>
       <c r="L7" t="n">
         <v>8.781052968829314</v>
@@ -35111,7 +35111,7 @@
         <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
-        <v>38.67269972973595</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35175,13 +35175,13 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260764</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
         <v>23.49434324994148</v>
@@ -35254,7 +35254,7 @@
         <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
-        <v>33.13054140576661</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
         <v>15.29662563687356</v>
@@ -35275,7 +35275,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.510933337982259</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739425</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829311</v>
+        <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752733</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752733</v>
+        <v>10.5684724707054</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184533</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409514</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>236.9238661190989</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35734,10 +35734,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811317</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>266.5900650540088</v>
       </c>
       <c r="M16" t="n">
-        <v>395.7952529497139</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35962,19 +35962,19 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>428.2269850961492</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320033</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207615</v>
+        <v>228.6765228896161</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36199,10 +36199,10 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>70.13034202264448</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>388.2942256789515</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
@@ -36299,10 +36299,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36369,7 +36369,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994717</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619339</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>456.1835826469317</v>
       </c>
       <c r="O25" t="n">
-        <v>277.1599674523493</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36539,7 +36539,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36673,13 +36673,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>327.3995705002437</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>576.9206257840672</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>216.0496516915119</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
@@ -37013,7 +37013,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766673</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37147,13 +37147,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,7 +37168,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619339</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
@@ -37250,7 +37250,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766673</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>167.0540751263753</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561045</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
@@ -37487,7 +37487,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766673</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>298.4871160345847</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37724,7 +37724,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,19 +37788,19 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37943,16 +37943,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>260.4234789221537</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -37961,7 +37961,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38031,13 +38031,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>351.6914102878035</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
